--- a/public/cxjg/结算单.xlsx
+++ b/public/cxjg/结算单.xlsx
@@ -1504,7 +1504,7 @@
   <dimension ref="C1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.4416666666667" defaultRowHeight="19.95" customHeight="1" outlineLevelCol="7"/>
@@ -1603,6 +1603,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="15">
+        <f>G9-F9</f>
         <v>0</v>
       </c>
       <c r="E9" s="15">
@@ -1620,11 +1621,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
+        <f t="shared" ref="D10:D17" si="0">G10-F10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="15">
         <v>0</v>
       </c>
@@ -1637,11 +1637,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="15">
         <v>0</v>
       </c>
@@ -1654,11 +1653,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="15">
         <v>0</v>
       </c>
@@ -1671,11 +1669,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="15">
         <v>0</v>
       </c>
@@ -1688,11 +1685,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="15">
         <v>0</v>
       </c>
@@ -1705,11 +1701,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="15">
         <v>0</v>
       </c>
@@ -1722,11 +1717,10 @@
         <v>21</v>
       </c>
       <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="15">
         <v>0</v>
       </c>
@@ -1739,11 +1733,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="15">
         <v>0</v>
       </c>
@@ -1756,18 +1749,18 @@
         <v>23</v>
       </c>
       <c r="D18" s="13">
-        <f t="shared" ref="D18:G18" si="0">SUM(D9:D17)</f>
+        <f t="shared" ref="D18:G18" si="1">SUM(D9:D17)</f>
         <v>0</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/public/cxjg/结算单.xlsx
+++ b/public/cxjg/结算单.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="25725" windowHeight="17775" tabRatio="885"/>
   </bookViews>
   <sheets>
-    <sheet name="结算单" sheetId="4" r:id="rId1"/>
+    <sheet name="结算单" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">结算单!$B$1:$H$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,31 +32,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t>《深圳市桓日激光有限公司》结算单</t>
-  </si>
-  <si>
-    <t>收件方：深圳市桓日激光有限公司</t>
+    <t>《深圳市创鑫激光股份有限公司》结算单</t>
+  </si>
+  <si>
+    <t>收件方：深圳市创鑫激光股份有限公司</t>
   </si>
   <si>
     <t>发件公司：深圳市特航航空服务有限公司</t>
   </si>
   <si>
-    <t>收件人：韦雪娜</t>
+    <t>收件人：曾玉娟</t>
   </si>
   <si>
     <t>发件人：王欣欣</t>
   </si>
   <si>
-    <t>电话：13430456543</t>
+    <t>电话：13620930071</t>
   </si>
   <si>
     <t>电话：15768628831</t>
   </si>
   <si>
-    <t>最晚结算日：2025-09-30</t>
-  </si>
-  <si>
-    <t>本公司2025-08-01至2025-08-31与贵公司(深圳市桓日激光有限公司)的结算款项列示如下：</t>
+    <t>最晚结算日：2025-10-31</t>
+  </si>
+  <si>
+    <t>本公司2025-09-01至2025-09-30与贵公司(深圳市创鑫激光股份有限公司)的结算款项列示如下：</t>
   </si>
   <si>
     <t>类型</t>
@@ -104,7 +107,7 @@
     <t>本次消费金额为：人民币（大写）</t>
   </si>
   <si>
-    <t>请在2025-09-30前，将本期应还金额付款到以下账户：</t>
+    <t>请在2025-10-31前，将本期应还金额付款到以下账户：</t>
   </si>
   <si>
     <t>还款信息</t>
@@ -337,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,12 +536,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +856,7 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,7 +1222,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="微信截图_20241022151124"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="微信截图_20241022151124"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1238,7 +1235,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9980930" y="286385"/>
+          <a:off x="9850755" y="286385"/>
           <a:ext cx="1271270" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1500,26 +1497,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="C1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.4416666666667" defaultRowHeight="19.95" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="25.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="7" width="25.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.66666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="34.4416666666667" style="1" customWidth="1"/>
     <col min="10" max="16384" width="34.4416666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="79.95" customHeight="1" spans="3:7">
+    <row r="1" ht="79.95" customHeight="1" spans="3:7">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1525,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="3" customHeight="1" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1537,7 @@
       <c r="G3" s="5"/>
       <c r="H3"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="4" customHeight="1" spans="3:8">
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1552,7 +1549,7 @@
       <c r="G4" s="6"/>
       <c r="H4"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="5" customHeight="1" spans="3:8">
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +1561,7 @@
       <c r="G5" s="10"/>
       <c r="H5"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:6">
+    <row r="6" customHeight="1" spans="3:6">
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1569,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="49.95" customHeight="1" spans="3:7">
+    <row r="7" ht="49.95" customHeight="1" spans="3:7">
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1578,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="40.2" customHeight="1" spans="3:7">
+    <row r="8" ht="40.2" customHeight="1" spans="3:7">
       <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
@@ -1598,7 +1595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="9" customHeight="1" spans="3:7">
       <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="10" customHeight="1" spans="3:7">
       <c r="C10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1632,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="11" customHeight="1" spans="3:7">
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -1648,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="12" customHeight="1" spans="3:7">
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="13" customHeight="1" spans="3:7">
       <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
@@ -1680,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="14" customHeight="1" spans="3:7">
       <c r="C14" s="14" t="s">
         <v>19</v>
       </c>
@@ -1696,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="15" customHeight="1" spans="3:7">
       <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="16" customHeight="1" spans="3:7">
       <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
@@ -1728,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="17" customHeight="1" spans="3:7">
       <c r="C17" s="14" t="s">
         <v>22</v>
       </c>
@@ -1744,27 +1741,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
+    <row r="18" ht="30" customHeight="1" spans="3:7">
       <c r="C18" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="13">
-        <f t="shared" ref="D18:G18" si="1">SUM(D9:D17)</f>
+        <f>SUM(D9:E13)</f>
         <v>0</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(F9:F17)</f>
         <v>0</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="40.2" customHeight="1" spans="3:7">
+        <f>SUM(G9:G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="40.2" customHeight="1" spans="3:7">
       <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
@@ -1776,14 +1773,14 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:7">
+    <row r="20" customHeight="1" spans="3:7">
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
+    <row r="21" ht="30" customHeight="1" spans="3:7">
       <c r="C21" s="19" t="s">
         <v>25</v>
       </c>
@@ -1792,7 +1789,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
+    <row r="22" ht="30" customHeight="1" spans="3:7">
       <c r="C22" s="19" t="s">
         <v>26</v>
       </c>
@@ -1807,7 +1804,7 @@
       </c>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
+    <row r="23" customHeight="1" spans="3:7">
       <c r="C23" s="20"/>
       <c r="D23" s="19" t="s">
         <v>30</v>
@@ -1820,14 +1817,14 @@
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
+    <row r="24" ht="30" customHeight="1" spans="3:7">
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
+    <row r="25" customHeight="1" spans="3:7">
       <c r="C25" s="21" t="s">
         <v>33</v>
       </c>
@@ -1859,7 +1856,9 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C22:C23"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/public/cxjg/结算单.xlsx
+++ b/public/cxjg/结算单.xlsx
@@ -1235,7 +1235,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9850755" y="286385"/>
+          <a:off x="10276205" y="286385"/>
           <a:ext cx="1271270" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1503,14 +1503,16 @@
   <dimension ref="C1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.4416666666667" defaultRowHeight="19.95" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" style="1" customWidth="1"/>
-    <col min="3" max="7" width="25.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.25" style="1" customWidth="1"/>
+    <col min="5" max="7" width="25.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.66666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="34.4416666666667" style="1" customWidth="1"/>
     <col min="10" max="16384" width="34.4416666666667" style="1"/>
